--- a/Jogos_do_Dia/2023-07-25_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-25_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>League</t>
   </si>
@@ -130,6 +130,9 @@
     <t>Chile Primera División</t>
   </si>
   <si>
+    <t>Colombia Categoria Primera B</t>
+  </si>
+  <si>
     <t>13:00:00</t>
   </si>
   <si>
@@ -154,18 +157,21 @@
     <t>20:30:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Žalgiris</t>
   </si>
   <si>
     <t>HJK</t>
   </si>
   <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
     <t>Dnipro-1</t>
   </si>
   <si>
-    <t>Dinamo Zagreb</t>
-  </si>
-  <si>
     <t>Barracas Central</t>
   </si>
   <si>
@@ -187,18 +193,21 @@
     <t>Instituto</t>
   </si>
   <si>
+    <t>Deportes Quindío</t>
+  </si>
+  <si>
     <t>Galatasaray</t>
   </si>
   <si>
     <t>Molde</t>
   </si>
   <si>
+    <t>Astana</t>
+  </si>
+  <si>
     <t>Panathinaikos</t>
   </si>
   <si>
-    <t>Astana</t>
-  </si>
-  <si>
     <t>Arsenal de Sarandí</t>
   </si>
   <si>
@@ -218,6 +227,9 @@
   </si>
   <si>
     <t>Lanús</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
   </si>
 </sst>
 </file>
@@ -579,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,25 +712,25 @@
         <v>45132</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>4.75</v>
+        <v>4.55</v>
       </c>
       <c r="H2">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I2">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -733,10 +745,10 @@
         <v>3.4</v>
       </c>
       <c r="N2">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O2">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P2">
         <v>1.35</v>
@@ -775,28 +787,28 @@
         <v>1.51</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -807,25 +819,25 @@
         <v>45132</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G3">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H3">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I3">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -840,10 +852,10 @@
         <v>2.9</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O3">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P3">
         <v>1.47</v>
@@ -882,28 +894,28 @@
         <v>1.26</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -914,103 +926,103 @@
         <v>45132</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4">
-        <v>2.55</v>
+        <v>1.59</v>
       </c>
       <c r="H4">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I4">
-        <v>2.87</v>
+        <v>5.3</v>
       </c>
       <c r="J4">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K4">
+        <v>9.75</v>
+      </c>
+      <c r="L4">
+        <v>1.28</v>
+      </c>
+      <c r="M4">
+        <v>3.4</v>
+      </c>
+      <c r="N4">
+        <v>1.82</v>
+      </c>
+      <c r="O4">
+        <v>1.82</v>
+      </c>
+      <c r="P4">
+        <v>1.37</v>
+      </c>
+      <c r="Q4">
+        <v>2.96</v>
+      </c>
+      <c r="R4">
+        <v>1.92</v>
+      </c>
+      <c r="S4">
+        <v>1.84</v>
+      </c>
+      <c r="T4">
+        <v>1.12</v>
+      </c>
+      <c r="U4">
+        <v>1.23</v>
+      </c>
+      <c r="V4">
+        <v>2.46</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1.86</v>
+      </c>
+      <c r="AA4">
+        <v>1.86</v>
+      </c>
+      <c r="AB4">
+        <v>1.3</v>
+      </c>
+      <c r="AC4">
         <v>8</v>
       </c>
-      <c r="L4">
-        <v>1.36</v>
-      </c>
-      <c r="M4">
-        <v>2.95</v>
-      </c>
-      <c r="N4">
-        <v>2.05</v>
-      </c>
-      <c r="O4">
-        <v>1.67</v>
-      </c>
-      <c r="P4">
-        <v>1.43</v>
-      </c>
-      <c r="Q4">
-        <v>2.6</v>
-      </c>
-      <c r="R4">
-        <v>1.87</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
-      </c>
-      <c r="T4">
-        <v>1.5</v>
-      </c>
-      <c r="U4">
-        <v>1.33</v>
-      </c>
-      <c r="V4">
-        <v>1.35</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
       <c r="AD4">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1021,103 +1033,103 @@
         <v>45132</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G5">
-        <v>1.61</v>
+        <v>2.36</v>
       </c>
       <c r="H5">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="I5">
-        <v>5.5</v>
+        <v>2.89</v>
       </c>
       <c r="J5">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K5">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="L5">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M5">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="N5">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="O5">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="P5">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="Q5">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
       <c r="R5">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="S5">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="U5">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="V5">
-        <v>2.46</v>
+        <v>1.35</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1128,16 +1140,16 @@
         <v>45132</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>1.85</v>
@@ -1235,25 +1247,25 @@
         <v>45132</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G7">
         <v>3.2</v>
       </c>
       <c r="H7">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I7">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -1268,10 +1280,10 @@
         <v>3.5</v>
       </c>
       <c r="N7">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="O7">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="P7">
         <v>1.36</v>
@@ -1310,28 +1322,28 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1342,25 +1354,25 @@
         <v>45132</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G8">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="H8">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="J8">
         <v>1.07</v>
@@ -1375,7 +1387,7 @@
         <v>2.9</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="O8">
         <v>1.6</v>
@@ -1417,28 +1429,28 @@
         <v>2.92</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1449,25 +1461,25 @@
         <v>45132</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G9">
-        <v>6.5</v>
+        <v>6.15</v>
       </c>
       <c r="H9">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I9">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J9">
         <v>1.06</v>
@@ -1482,10 +1494,10 @@
         <v>3.2</v>
       </c>
       <c r="N9">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="O9">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="P9">
         <v>1.42</v>
@@ -1524,28 +1536,28 @@
         <v>1.42</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1556,16 +1568,16 @@
         <v>45132</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G10">
         <v>2.35</v>
@@ -1663,25 +1675,25 @@
         <v>45132</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G11">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="H11">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I11">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="J11">
         <v>1.06</v>
@@ -1696,10 +1708,10 @@
         <v>3.25</v>
       </c>
       <c r="N11">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O11">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="P11">
         <v>1.42</v>
@@ -1770,16 +1782,16 @@
         <v>45132</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>2.77</v>
@@ -1867,6 +1879,113 @@
       </c>
       <c r="AI12">
         <v>3.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13">
+        <v>1.92</v>
+      </c>
+      <c r="H13">
+        <v>3.05</v>
+      </c>
+      <c r="I13">
+        <v>3.65</v>
+      </c>
+      <c r="J13">
+        <v>1.08</v>
+      </c>
+      <c r="K13">
+        <v>6.5</v>
+      </c>
+      <c r="L13">
+        <v>1.42</v>
+      </c>
+      <c r="M13">
+        <v>2.62</v>
+      </c>
+      <c r="N13">
+        <v>2.35</v>
+      </c>
+      <c r="O13">
+        <v>1.55</v>
+      </c>
+      <c r="P13">
+        <v>1.44</v>
+      </c>
+      <c r="Q13">
+        <v>2.62</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>1.73</v>
+      </c>
+      <c r="T13">
+        <v>1.25</v>
+      </c>
+      <c r="U13">
+        <v>1.35</v>
+      </c>
+      <c r="V13">
+        <v>1.78</v>
+      </c>
+      <c r="W13">
+        <v>1.91</v>
+      </c>
+      <c r="X13">
+        <v>0.63</v>
+      </c>
+      <c r="Y13">
+        <v>1.74</v>
+      </c>
+      <c r="Z13">
+        <v>1.04</v>
+      </c>
+      <c r="AA13">
+        <v>2.78</v>
+      </c>
+      <c r="AB13">
+        <v>1.33</v>
+      </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
+      <c r="AD13">
+        <v>3.74</v>
+      </c>
+      <c r="AE13">
+        <v>1.48</v>
+      </c>
+      <c r="AF13">
+        <v>1.37</v>
+      </c>
+      <c r="AG13">
+        <v>1.72</v>
+      </c>
+      <c r="AH13">
+        <v>2.13</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
